--- a/biology/Zoologie/Circaetus/Circaetus.xlsx
+++ b/biology/Zoologie/Circaetus/Circaetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circaetus est un genre de rapaces de la famille des Accipitriformes. Les espèces de ce genre sont spécialisées dans la chasse aux reptiles, principalement les serpents.
 Le terme circaète désigne six espèces du genre Circaetus, mais toutes les espèces de ce genre ne sont plus des circaètes depuis l'inclusion du Serpentaire du Congo.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre ont une silhouette comparable à celle d'une buse variable, c'est-à-dire une taille de 50 à 60 centimètres à l'âge adulte, mais une envergure plus grande (1,70 à 1,85 m). Leur poids moyen est de 1,5 à 2,2 kg, la femelle étant souvent un peu plus grande et plus lourde que le mâle. Le dimorphisme sexuel des adultes n'est pas très marqué.
 Elles peuvent facilement être confondues avec la bondrée apivore, voire l'aigle de Bonelli.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Circaetus nichent habituellement dans de grands arbres, conifères ou chênes, suivant la région. Leurs territoires de chasse sont constitués de tout type de terrains dégagés leur permettant de bien voir le sol : pentes dénudées et rocheuses, garrigues, landes basses, prairies, steppes, maquis ou boisements très clairsemés.
 On peut les observer aussi bien près des côtes qu'en haute montagne.
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur régime alimentaire est principalement constitué de serpents et de lézards.
 Les Circaetus chassent à l'affût, du haut d'un arbre perchoir, face à une zone dégagée, ou bien pratiquent de longues périodes de vol stationnaire, en scrutant le sol.
@@ -611,7 +629,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Circaetus recherchent de préférence de grands arbres dans des endroits peu fréquentés, plutôt en lisière qu'au milieu d'une dense forêt.
 Le nid est souvent petit comparativement aux autres rapaces de même envergure ; il est habituellement situé en retrait du tronc, sur une grosse branche latérale, ou en position sommitale de l'arbre, car, du fait de leur envergure, les Circaetus ont besoin de place pour atterrir au nid.
@@ -647,7 +667,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Circaète Jean-le-Blanc (Circaetus gallicus) est un oiseau migrateur : visiteur d'été en Europe du Sud, il hiverne en Afrique, en région nord tropicale.
 Les Circaetus d'Asie hivernent en Inde.
@@ -682,10 +704,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Classification
-En 2007, une étude phylogénétique des Accipitridae montre que le genre Circaetus est paraphylétique, et propose d'y intégrer le Serpentaire du Congo pour rétablir la monophylie du genre[1] ; ce changement est pris en compte par le Congrès ornithologique international (classification version 3.3) en janvier 2013.
-Liste des espèces
-D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, une étude phylogénétique des Accipitridae montre que le genre Circaetus est paraphylétique, et propose d'y intégrer le Serpentaire du Congo pour rétablir la monophylie du genre ; ce changement est pris en compte par le Congrès ornithologique international (classification version 3.3) en janvier 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Circaetus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Circaetus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
 Circaetus gallicus – Circaète Jean-le-Blanc
 Circaetus beaudouini – Circaète de Beaudouin
 Circaetus pectoralis – Circaète à poitrine noire
